--- a/outputs/autoaprop.xlsx/autoapropxlsx/IEI.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/IEI.XLSX
@@ -160,6 +160,9 @@
     <t>4020</t>
   </si>
   <si>
+    <t>4232</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>ROBERTO CARLOS DINIZ</t>
   </si>
   <si>
@@ -244,7 +244,7 @@
     <t>HEVERTTON NILDO MOURA DO ROSARIO</t>
   </si>
   <si>
-    <t> </t>
+    <t>ARTUR LÚCIO DUARTE NETO</t>
   </si>
   <si>
     <t> </t>
